--- a/05 （Just-Dev）BugList表.xlsx
+++ b/05 （Just-Dev）BugList表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_Work\01_10_JustDev\文档\武汉大学2022中级实训过程文档\武汉大学2022中级实训过程文档\05_系统测试\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\whu-medium-software-engineering-training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{562FD2E4-F18A-4C22-804A-8BF5753712B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD01FF9-14BD-4823-91F1-D4B8A603EA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12827" xr2:uid="{81D1EFF8-80DB-4C5D-844B-BAC11A1DFF96}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{81D1EFF8-80DB-4C5D-844B-BAC11A1DFF96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="100">
   <si>
     <t>武汉大学计算机学院中级实训</t>
   </si>
@@ -378,6 +378,38 @@
   </si>
   <si>
     <t>注：本次Bug解决时间是2024.7.11-2024.7.16,“状态”栏三个选项：待解决、解决中、已解决。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请无法显示成员信息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请页无法显示成员信息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改鉴权模型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知无法找到日程</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知无法正确找到关联的日程信息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整鉴权</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.7.16</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -553,13 +585,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -568,50 +597,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -999,492 +1031,507 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23D5795-34D0-4A7C-B4D4-469B3628B9DE}">
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.8984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.59765625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.59765625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.09765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.59765625" style="3" customWidth="1"/>
-    <col min="9" max="32" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.09765625" style="3"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="32" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" ht="24.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" ht="24.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="25.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="25.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="B12" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" ht="24.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="4">
         <v>18</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="14" t="s">
         <v>36</v>
       </c>
@@ -1496,530 +1543,514 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    <row r="27" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+    <row r="30" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="4">
         <v>1</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+    <row r="31" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="4">
         <v>2</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+    <row r="32" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="4">
         <v>3</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+    <row r="33" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="4">
         <v>4</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+    <row r="34" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="4">
         <v>5</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="I34" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+    <row r="35" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="4">
         <v>6</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="I35" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+    <row r="36" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="4">
         <v>7</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="I36" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+    <row r="37" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="4">
         <v>8</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="I37" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+    <row r="38" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="4">
         <v>9</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="I38" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+    <row r="39" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="4">
         <v>10</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I39" s="13" t="s">
+      <c r="I39" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+    <row r="40" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="4">
         <v>11</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="6" t="s">
+      <c r="B40" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I40" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="I40" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="4">
         <v>12</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="4">
         <v>13</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="4">
         <v>14</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="9"/>
+    </row>
+    <row r="44" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="4">
         <v>15</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="4">
         <v>16</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="4">
         <v>17</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="4">
         <v>18</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="4">
         <v>19</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="4">
         <v>20</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I49" s="7"/>
-    </row>
-    <row r="50" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="4">
         <v>21</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I50" s="7"/>
-    </row>
-    <row r="51" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="4">
         <v>22</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="7"/>
-    </row>
-    <row r="52" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="13"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="14" t="s">
         <v>38</v>
       </c>
@@ -2030,9 +2061,9 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
-      <c r="I52" s="19"/>
-    </row>
-    <row r="53" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="15"/>
+    </row>
+    <row r="53" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="14" t="s">
         <v>91</v>
       </c>
@@ -2043,91 +2074,91 @@
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
-      <c r="I53" s="19"/>
-    </row>
-    <row r="54" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A28:I28"/>
@@ -2157,7 +2188,7 @@
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.98" bottom="0.98" header="0.51" footer="0.51"/>
@@ -2175,7 +2206,7 @@
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.98" bottom="0.98" header="0.51" footer="0.51"/>
